--- a/Python/form_data.xlsx
+++ b/Python/form_data.xlsx
@@ -413,14 +413,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Mariño</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>(078) 715-3999</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Python/form_data.xlsx
+++ b/Python/form_data.xlsx
@@ -16,14 +16,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +51,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,29 +429,189 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>submissionid</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>feedbackType</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>firstName</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>lastName</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>feedbackText</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>needsClarification</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>urgency</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>impactScope</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>forwardToDepartment</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>linkToAdditForm</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>reminderSent</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45778.68244238426</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>be75975c-2697-11f0-a674-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(078) 715-3999</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Julie</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Eckmann</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Dini mueter</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45778.73738229166</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cb9b5f8d-26a2-11f0-a674-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(078) 715-3999</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45778.7507708024</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7c24a12b-26a5-11f0-a674-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(078) 715-3999</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Loris</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mariño</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>(078) 715-3999</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>lorism@gmx.net</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Das ist die Frage</t>
         </is>
       </c>
     </row>

--- a/Python/form_data.xlsx
+++ b/Python/form_data.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,7 +582,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45778.7507708024</v>
+        <v>45778.75077079861</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -612,6 +612,416 @@
       <c r="I4" t="inlineStr">
         <is>
           <t>Das ist die Frage</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45789.37653412037</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>e7a95397-2efe-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>john@example.com</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean mollis ultricies interdum. Nullam pharetra vitae lectus eget volutpat. Integer in sodales ligula. Vestibulum pellentesque arcu in est aliquam rhoncus. Curabitur et dui quis arcu scelerisque congue. Pellentesque libero ligula, sagittis a tempus quis, finibus eget erat. Nunc sed tempor nunc. Mauris tempor odio id lorem commodo dapibus. Nulla viverra mi in magna imperdiet volutpat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45789.3798040162</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>aeb3eab1-2eff-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>john@example.com</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean mollis ultricies interdum. Nullam pharetra vitae lectus eget volutpat. Integer in sodales ligula. Vestibulum pellentesque arcu in est aliquam rhoncus. Curabitur et dui quis arcu scelerisque congue. Pellentesque libero ligula, sagittis a tempus quis, finibus eget erat. Nunc sed tempor nunc. Mauris tempor odio id lorem commodo dapibus. Nulla viverra mi in magna imperdiet volutpat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45789.3834979051</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6a36d908-2f00-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>john@example.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>+41312</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean mollis ultricies interdum. Nullam pharetra vitae lectus eget volutpat. Integer in sodales ligula. Vestibulum pellentesque arcu in est aliquam rhoncus. Curabitur et dui quis arcu scelerisque congue. Pellentesque libero ligula, sagittis a tempus quis, finibus eget erat. Nunc sed tempor nunc. Mauris tempor odio id lorem commodo dapibus. Nulla viverra mi in magna imperdiet volutpat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45789.4085253125</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>74fdb053-2f05-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>kevin.maier@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>312312</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean mollis ultricies interdum. Nullam pharetra vitae lectus eget volutpat. Integer in sodales ligula. Vestibulum pellentesque arcu in est aliquam rhoncus. Curabitur et dui quis arcu scelerisque congue. Pellentesque libero ligula, sagittis a tempus quis, finibus eget erat. Nunc sed tempor nunc. Mauris tempor odio id lorem commodo dapibus. Nulla viverra mi in magna imperdiet volutpat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45789.41376583333</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8348a2fa-2f06-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>john@example.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>+41312</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean mollis ultricies interdum. Nullam pharetra vitae lectus eget volutpat. Integer in sodales ligula. Vestibulum pellentesque arcu in est aliquam rhoncus. Curabitur et dui quis arcu scelerisque congue. Pellentesque libero ligula, sagittis a tempus quis, finibus eget erat. Nunc sed tempor nunc. Mauris tempor odio id lorem commodo dapibus. Nulla viverra mi in magna imperdiet volutpat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45789.41448775463</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>a8f0fcc1-2f06-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>kevin.maier@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>312312</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean mollis ultricies interdum. Nullam pharetra vitae lectus eget volutpat. Integer in sodales ligula. Vestibulum pellentesque arcu in est aliquam rhoncus. Curabitur et dui quis arcu scelerisque congue. Pellentesque libero ligula, sagittis a tempus quis, finibus eget erat. Nunc sed tempor nunc. Mauris tempor odio id lorem commodo dapibus. Nulla viverra mi in magna imperdiet volutpat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45789.41756166667</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>44d6f554-2f07-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>john@example.com</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>+41312</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean mollis ultricies interdum. Nullam pharetra vitae lectus eget volutpat. Integer in sodales ligula. Vestibulum pellentesque arcu in est aliquam rhoncus. Curabitur et dui quis arcu scelerisque congue. Pellentesque libero ligula, sagittis a tempus quis, finibus eget erat. Nunc sed tempor nunc. Mauris tempor odio id lorem commodo dapibus. Nulla viverra mi in magna imperdiet volutpat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45789.41876859953</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>835e7f6f-2f07-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>kevin.maier@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>312312</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean mollis ultricies interdum. Nullam pharetra vitae lectus eget volutpat. Integer in sodales ligula. Vestibulum pellentesque arcu in est aliquam rhoncus. Curabitur et dui quis arcu scelerisque congue. Pellentesque libero ligula, sagittis a tempus quis, finibus eget erat. Nunc sed tempor nunc. Mauris tempor odio id lorem commodo dapibus. Nulla viverra mi in magna imperdiet volutpat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45789.45248675926</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4d646cfe-2f0e-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>kevin.maier@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>312312</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean mollis ultricies interdum. Nullam pharetra vitae lectus eget volutpat. Integer in sodales ligula. Vestibulum pellentesque arcu in est aliquam rhoncus. Curabitur et dui quis arcu scelerisque congue. Pellentesque libero ligula, sagittis a tempus quis, finibus eget erat. Nunc sed tempor nunc. Mauris tempor odio id lorem commodo dapibus. Nulla viverra mi in magna imperdiet volutpat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45789.47321222222</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>76ca6e57-2f12-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>kevin.maier@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>312312</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean mollis ultricies interdum. Nullam pharetra vitae lectus eget volutpat. Integer in sodales ligula. Vestibulum pellentesque arcu in est aliquam rhoncus. Curabitur et dui quis arcu scelerisque congue. Pellentesque libero ligula, sagittis a tempus quis, finibus eget erat. Nunc sed tempor nunc. Mauris tempor odio id lorem commodo dapibus. Nulla viverra mi in magna imperdiet volutpat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45789.51575185185</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>06adef80-2f1b-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>kevin.maier@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>312312</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean mollis ultricies interdum. Nullam pharetra vitae lectus eget volutpat. Integer in sodales ligula. Vestibulum pellentesque arcu in est aliquam rhoncus. Curabitur et dui quis arcu scelerisque congue. Pellentesque libero ligula, sagittis a tempus quis, finibus eget erat. Nunc sed tempor nunc. Mauris tempor odio id lorem commodo dapibus. Nulla viverra mi in magna imperdiet volutpat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45789.51829799668</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8ae1c6ae-2f1b-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>kevin.maier@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>312312</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Olaf</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Schulz</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Aenean mollis ultricies interdum. Nullam pharetra vitae lectus eget volutpat. Integer in sodales ligula. Vestibulum pellentesque arcu in est aliquam rhoncus. Curabitur et dui quis arcu scelerisque congue. Pellentesque libero ligula, sagittis a tempus quis, finibus eget erat. Nunc sed tempor nunc. Mauris tempor odio id lorem commodo dapibus. Nulla viverra mi in magna imperdiet volutpat.</t>
         </is>
       </c>
     </row>

--- a/Python/form_data.xlsx
+++ b/Python/form_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,6 +618,80 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>f34630c2-31aa-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15.05.2025</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Volter</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Many have tried to interfere with my work. You think you are somehow better?</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>140a4b37-31ac-11f0-8dd5-fa163ee583d0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15.05.2025</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mariño</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Feedback Feedback DASSSSSSSSSSSSSSSSSSSSSSSSSSSSSSSSSasda sdjasdi asdjasd asd adihsdifhse IFESUFH SEIUFHESUFH SEIFSEIFH SEIIUFHUD SDLJHSDK JVHKJ YDkjefsdkjfh sifhsduf hsfhefsdv90shgw89ej f9sdv9'ah erduvi sdfgnraivndf ipdufn ipjdfn era9u a9erngijsdvnpiagh 9'a4eugaidrug iardug 'a8eugiuergn rghaergnuaer giuaeug aegaerug hae9rghae9r greg oyidjk&lt;setm nbglkdifjvpiuvpiruagh98a hyidnvpivjpiaegh a iaug aerg raiugidugh a'ivfdipghea</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Python/form_data.xlsx
+++ b/Python/form_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,1479 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6240569347217960217</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>loris.marino@students.ch</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marino</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Feedback</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6240571227219148105</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Marino</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Feedback 2</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Those Are the measures Taken :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6240588567219624072</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mariño</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Positives Feedback: Dir sit geili sieche</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Danke BRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6240594887214796179</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Nomau es guets feedback weu dir so super sit &lt;3</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>EEEEEEEEEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6240618617213632494</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Antonio</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vidal</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ADSADASDASDAD</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>review-board</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6240632557216375956</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>lorismarino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>+41787163999</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Test neu</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6240634327217276540</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SDasdadsDASd</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6240782907215294694</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ftNegative</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Marino</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Feeeeedbackkkkk</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>uMedium</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>isLarge</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6240785627216429652</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ftNegative</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>uMedium</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>isSmall</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>review-board</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6240814237211806951</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>FEEDBACK TEST</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6240952197214860052</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Marino</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Please work... pleaseeeee</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6240952197214860052</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Marino</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Please work... pleaseeeee</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6240952197214860052</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Marino</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Please work... pleaseeeee</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6240952197214860052</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Marino</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Please work... pleaseeeee</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6240952197214860052</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Marino</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Please work... pleaseeeee</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6240952197214860052</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Marino</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Please work... pleaseeeee</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6240952197214860052</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Marino</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Please work... pleaseeeee</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6240952197214860052</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>+41787153999</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Loris</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Marino</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Please work... pleaseeeee</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>6240954047215401061</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>+41487153999</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Wilma</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Diqfit</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Heelooooo</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Python/form_data.xlsx
+++ b/Python/form_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2027,6 +2027,708 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>6241455897214296304</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ftNegative</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Feedback</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>uMedium</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>isSmall</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>6241455897214296304</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Feedback</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6241455897214296304</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Feedback</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>6241455897214296304</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Feedback</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>6241455897214296304</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Feedback</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>6241455897214296304</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Feedback</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>6241455897214296304</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Feedback</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>6241455897214296304</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>loris.marino@students.fhnw.ch</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Feedback</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>6241491367218496262</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ftNegative</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>ASDasdas</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>uHigh</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>isSpecific</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6241491367218496262</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>ASDasdas</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6241491367218496262</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>ASDasdas</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>6241491367218496262</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>ASDasdas</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6241491367218496262</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>ASDasdas</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6241491367218496262</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>ASDasdas</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>6241491367218496262</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ASDasdas</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>6241491367218496262</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>27.05.2025</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>lorism@gmx.net</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>41787153999</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Dover</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ASDasdas</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
